--- a/sputnik/personal/ee/2ee.xlsx
+++ b/sputnik/personal/ee/2ee.xlsx
@@ -118,9 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -449,10 +450,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -471,131 +472,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>43008</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>422</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>166</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>43393</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>490</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D9" si="0">C4-C2</f>
         <v>68</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>4.5</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <f t="shared" ref="F4:F9" si="1">D4*E4</f>
         <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>176</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>2.35</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>43480</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>934</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>444</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>4.5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <f t="shared" si="1"/>
         <v>1998</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>176</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>2.35</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -604,46 +605,102 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>43727</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>1048</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>4.49</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <f t="shared" si="1"/>
         <v>511.86</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>232</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <f t="shared" si="1"/>
         <v>136.08000000000001</v>
       </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/2ee.xlsx
+++ b/sputnik/personal/ee/2ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,25 +24,34 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">К оплате </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
     <t>Показания на день оплаты</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -50,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -118,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -131,7 +140,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -143,6 +152,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -450,45 +460,51 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -504,6 +520,8 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="6"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -516,6 +534,8 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -537,6 +557,13 @@
       <c r="F4" s="6">
         <f t="shared" ref="F4:F9" si="1">D4*E4</f>
         <v>306</v>
+      </c>
+      <c r="G4" s="10">
+        <f>SUM(F4,F5)</f>
+        <v>329.5</v>
+      </c>
+      <c r="H4" s="10">
+        <v>329.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -558,6 +585,8 @@
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -579,6 +608,13 @@
       <c r="F6" s="6">
         <f t="shared" si="1"/>
         <v>1998</v>
+      </c>
+      <c r="G6" s="10">
+        <f>SUM(F6,F7)</f>
+        <v>1998</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -600,8 +636,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>3</v>
+      <c r="G7" s="2"/>
+      <c r="H7" s="10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -624,6 +661,13 @@
       <c r="F8" s="6">
         <f t="shared" si="1"/>
         <v>511.86</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>647.94000000000005</v>
+      </c>
+      <c r="H8" s="10">
+        <v>647.94000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -645,6 +689,8 @@
         <f t="shared" si="1"/>
         <v>136.08000000000001</v>
       </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -652,7 +698,17 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(G4,G6,G8)</f>
+        <v>2975.44</v>
+      </c>
+      <c r="H10" s="10">
+        <f>SUM(H4,H6,H8)</f>
+        <v>2977.44</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -661,46 +717,11 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="10">
+        <f>SUM(H10,-G10)</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/2ee.xlsx
+++ b/sputnik/personal/ee/2ee.xlsx
@@ -463,7 +463,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -559,8 +559,8 @@
         <v>306</v>
       </c>
       <c r="G4" s="10">
-        <f>SUM(F4,F5)</f>
-        <v>329.5</v>
+        <f>F4</f>
+        <v>306</v>
       </c>
       <c r="H4" s="10">
         <v>329.5</v>
@@ -585,7 +585,10 @@
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="10">
+        <f t="shared" ref="G5:G9" si="2">F5</f>
+        <v>23.5</v>
+      </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -610,7 +613,7 @@
         <v>1998</v>
       </c>
       <c r="G6" s="10">
-        <f>SUM(F6,F7)</f>
+        <f t="shared" si="2"/>
         <v>1998</v>
       </c>
       <c r="H6" s="10">
@@ -636,7 +639,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="H7" s="10" t="s">
         <v>2</v>
       </c>
@@ -663,8 +669,8 @@
         <v>511.86</v>
       </c>
       <c r="G8" s="10">
-        <f>SUM(F8,F9)</f>
-        <v>647.94000000000005</v>
+        <f t="shared" si="2"/>
+        <v>511.86</v>
       </c>
       <c r="H8" s="10">
         <v>647.94000000000005</v>
@@ -689,7 +695,10 @@
         <f t="shared" si="1"/>
         <v>136.08000000000001</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="10">
+        <f t="shared" si="2"/>
+        <v>136.08000000000001</v>
+      </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -702,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="10">
-        <f>SUM(G4,G6,G8)</f>
+        <f>SUM(G4:G9)</f>
         <v>2975.44</v>
       </c>
       <c r="H10" s="10">

--- a/sputnik/personal/ee/2ee.xlsx
+++ b/sputnik/personal/ee/2ee.xlsx
@@ -2,46 +2,45 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\sputnikcss\slimexpert.github.io\sputnik\personal\ee\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19605" windowHeight="10755"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
-  <si>
-    <t>Т1</t>
-  </si>
-  <si>
-    <t>Т2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Показания на день оплаты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
-    <t>Показания на день оплаты</t>
-  </si>
-  <si>
-    <t>День/ ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кВт/ч к оплате </t>
-  </si>
-  <si>
     <t>Начислено по представленым показаниям и действующему тарифу</t>
   </si>
   <si>
@@ -51,17 +50,17 @@
     <t>оплачено</t>
   </si>
   <si>
-    <t>итого за период</t>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +79,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -127,38 +119,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -181,44 +164,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -251,9 +234,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -292,311 +275,278 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43008</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>422</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>166</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43393</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>490</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
+        <f>C4-C2</f>
         <v>68</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="3">
         <v>4.5</v>
       </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
+      <c r="F4" s="3">
+        <f>D4*E4</f>
         <v>306</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="3">
         <f>F4</f>
         <v>306</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="3">
         <v>329.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>176</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D9" si="0">C5-C3</f>
         <v>10</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="3">
         <v>2.35</v>
       </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:F9" si="1">D5*E5</f>
         <v>23.5</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G9" si="2">F5</f>
         <v>23.5</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43480</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="3">
         <v>934</v>
@@ -605,25 +555,25 @@
         <f t="shared" si="0"/>
         <v>444</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="3">
         <v>4.5</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <f t="shared" si="1"/>
         <v>1998</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="3">
         <f t="shared" si="2"/>
         <v>1998</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>176</v>
@@ -632,137 +582,101 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="3">
         <v>2.35</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43727</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
         <v>1048</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="E8" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="3">
         <f t="shared" si="1"/>
-        <v>511.86</v>
-      </c>
-      <c r="G8" s="10">
+        <v>513</v>
+      </c>
+      <c r="G8" s="3">
         <f t="shared" si="2"/>
-        <v>511.86</v>
-      </c>
-      <c r="H8" s="10">
+        <v>513</v>
+      </c>
+      <c r="H8" s="3">
         <v>647.94000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
         <v>232</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="E9" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="3">
+        <v>2.35</v>
+      </c>
+      <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>136.08000000000001</v>
-      </c>
-      <c r="G9" s="10">
+        <v>131.6</v>
+      </c>
+      <c r="G9" s="3">
         <f t="shared" si="2"/>
-        <v>136.08000000000001</v>
-      </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="10">
-        <f>SUM(G4:G9)</f>
-        <v>2975.44</v>
-      </c>
-      <c r="H10" s="10">
-        <f>SUM(H4,H6,H8)</f>
-        <v>2977.44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="10">
-        <f>SUM(H10,-G10)</f>
-        <v>2</v>
-      </c>
+        <v>131.6</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sputnik/personal/ee/2ee.xlsx
+++ b/sputnik/personal/ee/2ee.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\sputnikcss\slimexpert.github.io\sputnik\personal\ee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\новое ee 03.06.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19605" windowHeight="10755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="10755"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -119,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -136,6 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -196,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -231,7 +232,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -419,7 +420,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +432,7 @@
     <col min="7" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,18 +502,18 @@
         <f>C4-C2</f>
         <v>68</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="8">
         <v>4.5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="8">
         <f>D4*E4</f>
         <v>306</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="8">
         <f>F4</f>
         <v>306</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="8">
         <v>329.5</v>
       </c>
     </row>
@@ -528,18 +529,18 @@
         <f t="shared" ref="D5:D9" si="0">C5-C3</f>
         <v>10</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="8">
         <v>2.35</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="8">
         <f t="shared" ref="F5:F9" si="1">D5*E5</f>
         <v>23.5</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="8">
         <f t="shared" ref="G5:G9" si="2">F5</f>
         <v>23.5</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -555,18 +556,18 @@
         <f t="shared" si="0"/>
         <v>444</v>
       </c>
-      <c r="E6" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="8">
+        <v>4.57</v>
+      </c>
+      <c r="F6" s="8">
         <f t="shared" si="1"/>
-        <v>1998</v>
-      </c>
-      <c r="G6" s="3">
+        <v>2029.0800000000002</v>
+      </c>
+      <c r="G6" s="8">
         <f t="shared" si="2"/>
-        <v>1998</v>
-      </c>
-      <c r="H6" s="3">
+        <v>2029.0800000000002</v>
+      </c>
+      <c r="H6" s="8">
         <v>2000</v>
       </c>
     </row>
@@ -582,18 +583,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="8">
+        <v>2.39</v>
+      </c>
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -609,18 +610,18 @@
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="E8" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="8">
         <f t="shared" si="1"/>
-        <v>513</v>
-      </c>
-      <c r="G8" s="3">
+        <v>511.86</v>
+      </c>
+      <c r="G8" s="8">
         <f t="shared" si="2"/>
-        <v>513</v>
-      </c>
-      <c r="H8" s="3">
+        <v>511.86</v>
+      </c>
+      <c r="H8" s="8">
         <v>647.94000000000005</v>
       </c>
     </row>
@@ -636,24 +637,72 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="E9" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="8">
         <f t="shared" si="1"/>
-        <v>131.6</v>
-      </c>
-      <c r="G9" s="3">
+        <v>136.08000000000001</v>
+      </c>
+      <c r="G9" s="8">
         <f t="shared" si="2"/>
-        <v>131.6</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>136.08000000000001</v>
+      </c>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
+      <c r="A10" s="4">
+        <v>43983</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1407</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="3">C10-C8</f>
+        <v>359</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
+        <v>1611.91</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" ref="G10:G11" si="5">F10</f>
+        <v>1611.91</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1611.91</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>232</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
@@ -677,6 +726,7 @@
       <c r="B18" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sputnik/personal/ee/2ee.xlsx
+++ b/sputnik/personal/ee/2ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\новое ee 03.06.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.10.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 15.11.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -197,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -232,7 +232,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +676,8 @@
         <v>1611.91</v>
       </c>
       <c r="H10" s="8">
-        <v>1611.91</v>
+        <f>SUM(G10,G11)</f>
+        <v>1677.52</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -685,30 +686,79 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E11" s="8">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>65.61</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>65.61</v>
       </c>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
+      <c r="A12" s="4">
+        <v>44153</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="6">C12-C10</f>
+        <v>293</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
+        <v>1380.03</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" ref="G12:G13" si="8">F12</f>
+        <v>1380.03</v>
+      </c>
+      <c r="H12" s="8">
+        <f>SUM(G12,G13)</f>
+        <v>1935.9299999999998</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>477</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="6"/>
+        <v>218</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="7"/>
+        <v>555.9</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="8"/>
+        <v>555.9</v>
+      </c>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>

--- a/sputnik/personal/ee/2ee.xlsx
+++ b/sputnik/personal/ee/2ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.10.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 15.11.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15.12.2020.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 20.11.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,10 +761,59 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
+      <c r="A14" s="4">
+        <v>44173</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="9">C14-C12</f>
+        <v>400</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="10">D14*E14</f>
+        <v>1884</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" ref="G14:G15" si="11">F14</f>
+        <v>1884</v>
+      </c>
+      <c r="H14" s="8">
+        <f>SUM(G14,G15)</f>
+        <v>2707.65</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>800</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="9"/>
+        <v>323</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="10"/>
+        <v>823.65</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="11"/>
+        <v>823.65</v>
+      </c>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>

--- a/sputnik/personal/ee/2ee.xlsx
+++ b/sputnik/personal/ee/2ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15.12.2020.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 20.11.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\23.01.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 25.01.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -84,12 +84,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -119,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -137,6 +143,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -417,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G17" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,11 +570,11 @@
         <f t="shared" si="1"/>
         <v>2029.0800000000002</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <f t="shared" si="2"/>
         <v>2029.0800000000002</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="9">
         <v>2000</v>
       </c>
     </row>
@@ -816,13 +823,82 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44207</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2600</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="12">C16-C14</f>
+        <v>500</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>2355</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" ref="G16:G17" si="14">F16</f>
+        <v>2355</v>
+      </c>
+      <c r="H16" s="8">
+        <f>SUM(G16,G17)</f>
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>900</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="13"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="14"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/2ee.xlsx
+++ b/sputnik/personal/ee/2ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\23.01.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 25.01.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -125,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -144,6 +144,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -424,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G16:G17"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,27 +879,137 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+      <c r="A18" s="4">
+        <v>44313</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2600</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="15">C18-C16</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="16">D18*E18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G19" si="17">F18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <f>SUM(G18,G19)</f>
+        <v>3060</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2100</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="15"/>
+        <v>1200</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="16"/>
+        <v>3060</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="17"/>
+        <v>3060</v>
+      </c>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="A20" s="4">
+        <v>44313</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="18">C20-C18</f>
+        <v>1500</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="19">D20*E20</f>
+        <v>7065</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" ref="G20:G21" si="20">F20</f>
+        <v>7065</v>
+      </c>
+      <c r="H20" s="8">
+        <f>SUM(G20,G21)</f>
+        <v>7065</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="10">
+        <f>SUM(G2:G21)</f>
+        <v>22062.62</v>
+      </c>
+      <c r="H22" s="10">
+        <f>SUM(H2:H21)</f>
+        <v>22033.54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="3"/>
+      <c r="H23" s="8">
+        <f>SUM(G22,-H22)</f>
+        <v>29.079999999998108</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/2ee.xlsx
+++ b/sputnik/personal/ee/2ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -143,8 +143,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,21 +466,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43008</v>
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>44313</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>422</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+        <v>4100</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2-C4</f>
+        <v>1500</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>7065</v>
+      </c>
+      <c r="G2" s="8">
+        <f t="shared" ref="G2:G3" si="1">F2</f>
+        <v>7065</v>
+      </c>
+      <c r="H2" s="8">
+        <f>SUM(G2,G3)</f>
+        <v>7065</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -488,41 +502,53 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>166</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+        <v>2100</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3-C5</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43393</v>
+        <v>44313</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>490</v>
+        <v>2600</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-C2</f>
-        <v>68</v>
+        <f>C4-C6</f>
+        <v>0</v>
       </c>
       <c r="E4" s="8">
-        <v>4.5</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f>D4*E4</f>
-        <v>306</v>
+        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
+        <v>0</v>
       </c>
       <c r="G4" s="8">
-        <f>F4</f>
-        <v>306</v>
+        <f t="shared" ref="G4:G5" si="3">F4</f>
+        <v>0</v>
       </c>
       <c r="H4" s="8">
-        <v>329.5</v>
+        <f>SUM(G4,G5)</f>
+        <v>3060</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -531,53 +557,40 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>176</v>
+        <v>2100</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D9" si="0">C5-C3</f>
-        <v>10</v>
+        <f>C5-C7</f>
+        <v>1200</v>
       </c>
       <c r="E5" s="8">
-        <v>2.35</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" ref="F5:F9" si="1">D5*E5</f>
-        <v>23.5</v>
+        <f t="shared" si="2"/>
+        <v>3060</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" ref="G5:G9" si="2">F5</f>
-        <v>23.5</v>
+        <f t="shared" si="3"/>
+        <v>3060</v>
       </c>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43480</v>
+        <v>44207</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>934</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>444</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" si="1"/>
-        <v>2029.0800000000002</v>
-      </c>
-      <c r="G6" s="9">
-        <f t="shared" si="2"/>
-        <v>2029.0800000000002</v>
-      </c>
-      <c r="H6" s="9">
-        <v>2000</v>
-      </c>
+        <v>2600</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -585,430 +598,35 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>176</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2.39</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43727</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1048</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="E8" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="1"/>
-        <v>511.86</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="2"/>
-        <v>511.86</v>
-      </c>
-      <c r="H8" s="8">
-        <v>647.94000000000005</v>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="9">
+        <f>SUM(G2:G5)</f>
+        <v>10125</v>
+      </c>
+      <c r="H8" s="9">
+        <f>SUM(H2:H5)</f>
+        <v>10125</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>232</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="1"/>
-        <v>136.08000000000001</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="2"/>
-        <v>136.08000000000001</v>
-      </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43983</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1407</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="3">C10-C8</f>
-        <v>359</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
-        <v>1611.91</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" ref="G10:G11" si="5">F10</f>
-        <v>1611.91</v>
-      </c>
-      <c r="H10" s="8">
-        <f>SUM(G10,G11)</f>
-        <v>1677.52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3">
-        <v>259</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="4"/>
-        <v>65.61</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="5"/>
-        <v>65.61</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>44153</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1700</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="6">C12-C10</f>
-        <v>293</v>
-      </c>
-      <c r="E12" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
-        <v>1380.03</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" ref="G12:G13" si="8">F12</f>
-        <v>1380.03</v>
-      </c>
-      <c r="H12" s="8">
-        <f>SUM(G12,G13)</f>
-        <v>1935.9299999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3">
-        <v>477</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="6"/>
-        <v>218</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="7"/>
-        <v>555.9</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="8"/>
-        <v>555.9</v>
-      </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>44173</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2100</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="9">C14-C12</f>
-        <v>400</v>
-      </c>
-      <c r="E14" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="10">D14*E14</f>
-        <v>1884</v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" ref="G14:G15" si="11">F14</f>
-        <v>1884</v>
-      </c>
-      <c r="H14" s="8">
-        <f>SUM(G14,G15)</f>
-        <v>2707.65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3">
-        <v>800</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="9"/>
-        <v>323</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="10"/>
-        <v>823.65</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" si="11"/>
-        <v>823.65</v>
-      </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>44207</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2600</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="12">C16-C14</f>
-        <v>500</v>
-      </c>
-      <c r="E16" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
-        <v>2355</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" ref="G16:G17" si="14">F16</f>
-        <v>2355</v>
-      </c>
-      <c r="H16" s="8">
-        <f>SUM(G16,G17)</f>
-        <v>2610</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="3">
-        <v>900</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="12"/>
-        <v>100</v>
-      </c>
-      <c r="E17" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="13"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="14"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>44313</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2600</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="15">C18-C16</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="16">D18*E18</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <f t="shared" ref="G18:G19" si="17">F18</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <f>SUM(G18,G19)</f>
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2100</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="15"/>
-        <v>1200</v>
-      </c>
-      <c r="E19" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="16"/>
-        <v>3060</v>
-      </c>
-      <c r="G19" s="8">
-        <f t="shared" si="17"/>
-        <v>3060</v>
-      </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>44313</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3">
-        <v>4100</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ref="D20:D21" si="18">C20-C18</f>
-        <v>1500</v>
-      </c>
-      <c r="E20" s="8">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="19">D20*E20</f>
-        <v>7065</v>
-      </c>
-      <c r="G20" s="8">
-        <f t="shared" ref="G20:G21" si="20">F20</f>
-        <v>7065</v>
-      </c>
-      <c r="H20" s="8">
-        <f>SUM(G20,G21)</f>
-        <v>7065</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2100</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="10">
-        <f>SUM(G2:G21)</f>
-        <v>22062.62</v>
-      </c>
-      <c r="H22" s="10">
-        <f>SUM(H2:H21)</f>
-        <v>22033.54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="3"/>
-      <c r="H23" s="8">
-        <f>SUM(G22,-H22)</f>
-        <v>29.079999999998108</v>
+      <c r="G9" s="3"/>
+      <c r="H9" s="8">
+        <f>SUM(G8,-H8)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/2ee.xlsx
+++ b/sputnik/personal/ee/2ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 31.10.2021\31.10.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.10.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -84,7 +84,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,6 +94,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -145,6 +151,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -425,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,32 +475,32 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>44313</v>
+        <v>44526</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>4100</v>
+        <v>4644</v>
       </c>
       <c r="D2" s="3">
         <f>C2-C4</f>
-        <v>1500</v>
+        <v>544</v>
       </c>
       <c r="E2" s="8">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>7065</v>
+        <v>2698.24</v>
       </c>
       <c r="G2" s="8">
         <f t="shared" ref="G2:G3" si="1">F2</f>
-        <v>7065</v>
+        <v>2698.24</v>
       </c>
       <c r="H2" s="8">
         <f>SUM(G2,G3)</f>
-        <v>7065</v>
+        <v>3108.2799999999997</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -502,53 +509,53 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>2100</v>
+        <v>2253</v>
       </c>
       <c r="D3" s="3">
         <f>C3-C5</f>
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E3" s="8">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>410.04</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>410.04</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="11">
         <v>44313</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>2600</v>
+        <v>4100</v>
       </c>
       <c r="D4" s="3">
         <f>C4-C6</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E4" s="8">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>0</v>
+        <v>7065</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" ref="G4:G5" si="3">F4</f>
-        <v>0</v>
+        <v>7065</v>
       </c>
       <c r="H4" s="8">
         <f>SUM(G4,G5)</f>
-        <v>3060</v>
+        <v>7065</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -561,24 +568,24 @@
       </c>
       <c r="D5" s="3">
         <f>C5-C7</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E5" s="8">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="2"/>
-        <v>3060</v>
+        <v>0</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="3"/>
-        <v>3060</v>
+        <v>0</v>
       </c>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44207</v>
+        <v>44313</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -586,11 +593,25 @@
       <c r="C6" s="3">
         <v>2600</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="3">
+        <f>C6-C8</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" ref="G6:G7" si="5">F6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <f>SUM(G6,G7)</f>
+        <v>3060</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -598,34 +619,75 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
+        <v>2100</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7-C9</f>
+        <v>1200</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="4"/>
+        <v>3060</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="5"/>
+        <v>3060</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44207</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
         <v>900</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="9">
-        <f>SUM(G2:G5)</f>
+      <c r="D9" s="3"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="9">
+        <f>SUM(G4:G7)</f>
         <v>10125</v>
       </c>
-      <c r="H8" s="9">
-        <f>SUM(H2:H5)</f>
+      <c r="H10" s="9">
+        <f>SUM(H4:H7)</f>
         <v>10125</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G9" s="3"/>
-      <c r="H9" s="8">
-        <f>SUM(G8,-H8)</f>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+      <c r="H11" s="8">
+        <f>SUM(G10,-H10)</f>
         <v>0</v>
       </c>
     </row>
